--- a/donnees.xlsx
+++ b/donnees.xlsx
@@ -5,22 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEEVE\OneDrive\Documents\nump\ISSEA_ISE2\S_2\Challenge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STEEVE\OneDrive\Documents\nump\ISSEA_ISE2\S_2\Challenge_Indabax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8AB87C-A6A9-43FE-A1CC-8DFF3B8B9092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCDC970-062B-4474-91B8-D31442FB91BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -140,16 +141,32 @@
   </si>
   <si>
     <t>Raison_de_non-eligibilité_totale__[Tatoué]</t>
+  </si>
+  <si>
+    <t>Horodateur</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>Type de donation</t>
+  </si>
+  <si>
+    <t>Groupe Sanguin ABO / Rhesus</t>
+  </si>
+  <si>
+    <t>Phenotype</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +191,12 @@
       <color rgb="FFCE9178"/>
       <name val="Centaur"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +268,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,10 +584,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AU1"/>
+  <dimension ref="A1:AU19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,7 +606,7 @@
     <col min="21" max="47" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,9 +727,785 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2" s="11"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+      <c r="AL2"/>
+      <c r="AM2"/>
+      <c r="AO2"/>
+    </row>
+    <row r="3" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3"/>
+      <c r="AC3"/>
+      <c r="AD3"/>
+      <c r="AE3"/>
+      <c r="AF3"/>
+      <c r="AG3"/>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3"/>
+      <c r="AO3"/>
+    </row>
+    <row r="4" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+      <c r="AL4"/>
+      <c r="AM4"/>
+      <c r="AO4"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+      <c r="AL5"/>
+      <c r="AM5"/>
+      <c r="AO5"/>
+    </row>
+    <row r="6" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+      <c r="AL6"/>
+      <c r="AM6"/>
+      <c r="AO6"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A7"/>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+      <c r="AL7"/>
+      <c r="AM7"/>
+      <c r="AO7"/>
+    </row>
+    <row r="8" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
+      <c r="AM8"/>
+      <c r="AO8"/>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A9"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9"/>
+      <c r="AO9"/>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A10"/>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+      <c r="AL10"/>
+      <c r="AM10"/>
+      <c r="AO10"/>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A11"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+      <c r="AL11"/>
+      <c r="AM11"/>
+      <c r="AO11"/>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AO12"/>
+    </row>
+    <row r="13" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A13"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AO13"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+      <c r="AL14"/>
+      <c r="AM14"/>
+      <c r="AO14"/>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+      <c r="AL15"/>
+      <c r="AM15"/>
+      <c r="AO15"/>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+      <c r="AL16"/>
+      <c r="AM16"/>
+      <c r="AO16"/>
+    </row>
+    <row r="17" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" s="11"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+      <c r="AL17"/>
+      <c r="AM17"/>
+      <c r="AO17"/>
+    </row>
+    <row r="18" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+      <c r="AL18"/>
+      <c r="AM18"/>
+      <c r="AO18"/>
+    </row>
+    <row r="19" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+      <c r="AL19"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+      <c r="AO19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0412835-F287-40B8-B852-0200FD71A300}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>